--- a/data/LarsR.xlsx
+++ b/data/LarsR.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UTV\fullstack1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4bd55f2dbbf3eb/work/recipes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9856337-4895-4674-926D-DF371BBFEA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{A9856337-4895-4674-926D-DF371BBFEA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C2EA8CA-F07B-4829-9DE8-B4099BDFAFA1}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="2880" windowWidth="21600" windowHeight="12585" xr2:uid="{66F4FC48-351C-41B5-97D6-2EC88B6079B3}"/>
+    <workbookView xWindow="500" yWindow="860" windowWidth="22180" windowHeight="15030" xr2:uid="{66F4FC48-351C-41B5-97D6-2EC88B6079B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Toc198583186" localSheetId="0">Sheet1!$B$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -122,20 +125,321 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>-------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+    <t>Ukjent</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Fruktfat uten fat</t>
+  </si>
+  <si>
+    <t>WineTips?</t>
+  </si>
+  <si>
+    <t>MatchFor?</t>
+  </si>
+  <si>
+    <t>Pet Nat Rosé by Toni Hartl 2022  https://www.vinmonopolet.no/Land/%C3%98sterrike/%C3%96sterreichischer-W-/Pet-Nat-Ros%C3%A9-by-Toni-Hartl-2022/p/17124101 (musserende rosé, Østerrike – polet #17124101) eller dens hvite søster</t>
+  </si>
+  <si>
+    <t>Forrett</t>
+  </si>
+  <si>
+    <t>stk</t>
+  </si>
+  <si>
+    <t>melon (lys)</t>
+  </si>
+  <si>
+    <t>i terninger</t>
+  </si>
+  <si>
+    <t>grapefrukt</t>
+  </si>
+  <si>
+    <t>i fileter</t>
+  </si>
+  <si>
+    <t>dynkes med</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>Sauternes</t>
+  </si>
+  <si>
+    <t>skal stå et par timer, minst</t>
+  </si>
+  <si>
+    <t>eller alkofri</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>erstatt sauternes med en lake av limesaft, vann, sukker og litt limeskall</t>
+  </si>
+  <si>
+    <t>Dekorer med</t>
+  </si>
+  <si>
+    <t>kurv</t>
+  </si>
+  <si>
+    <t>jordbær</t>
+  </si>
+  <si>
+    <t>oppskåret</t>
+  </si>
+  <si>
+    <t>og</t>
+  </si>
+  <si>
+    <t>blader</t>
+  </si>
+  <si>
+    <t>mynte</t>
+  </si>
+  <si>
+    <t>Sashimi i epletreet</t>
+  </si>
+  <si>
+    <t>17.mai 2025\nL fam 2025\nLærere 2025</t>
+  </si>
+  <si>
+    <t>Usikker</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Mange ganger</t>
+  </si>
+  <si>
+    <t># -------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Smør og brød</t>
+  </si>
+  <si>
+    <t>Evabrød</t>
+  </si>
+  <si>
+    <t>Brimistua</t>
+  </si>
+  <si>
+    <t>Eva på Brimi Fjellstugu</t>
+  </si>
+  <si>
+    <t>Tilbehør</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>hvetemel</t>
+  </si>
+  <si>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>grov hvete</t>
+  </si>
+  <si>
+    <t>pakke</t>
+  </si>
+  <si>
+    <t>gjær</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>olje</t>
+  </si>
+  <si>
+    <t>vann</t>
+  </si>
+  <si>
+    <t>til deigen er passe</t>
+  </si>
+  <si>
+    <t>Heves til dobbel størrelse.\nFormes til 4 runde brød\nPensle med olje og drysses med flaksalt\nEtterheves ca 1/2 time\nStekes på 210° i ca 15 min</t>
+  </si>
+  <si>
+    <t>Halvbrunet urtesmør</t>
+  </si>
+  <si>
+    <t>Egen</t>
+  </si>
+  <si>
+    <t>Lars R</t>
+  </si>
+  <si>
+    <t>Brød</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>rørossmør</t>
+  </si>
+  <si>
+    <t>(du kan bruke vanlig smør også, men jeg er litt hekta ;)</t>
+  </si>
+  <si>
+    <t>Ta ut smør så det blir romtemperert.\nBrun halvparten av smøret på medium varme, visp jevnlig, og sammenhengende på slutten – vær forsiktig så det ikke svir seg, ca 160° er passe (svir seg ved 180…). Avkjøl til romtemperatur.\nPisk sammen med resten av smøret – minst 5 minutter – luft er greia.</t>
+  </si>
+  <si>
+    <t>Rør inn finhakket</t>
+  </si>
+  <si>
+    <t>rosmarin</t>
+  </si>
+  <si>
+    <t>og finhakket</t>
+  </si>
+  <si>
+    <t>hvitløk</t>
+  </si>
+  <si>
+    <t>17.mai 2025\nLærere 2025</t>
+  </si>
+  <si>
+    <t>Hexamer Schlossböckelheimer Porphyr Riesling 2023 (polet #416101) eller Kruger-Rumpf Phyllit Riesling Feinherb 2024 (polet #851901)</t>
+  </si>
+  <si>
+    <t>Ponzusaus</t>
+  </si>
+  <si>
+    <t>Eple- og avokadosalat</t>
+  </si>
+  <si>
+    <t>laksefilet</t>
+  </si>
+  <si>
+    <t>tunfiskfilet</t>
+  </si>
+  <si>
+    <t>kveitefilet</t>
+  </si>
+  <si>
+    <t>all fisken skjæres i tynne skiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serveres med </t>
+  </si>
+  <si>
+    <t>wasabi</t>
+  </si>
+  <si>
+    <t>syltet ingefær</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>saltredusert soyasaus</t>
+  </si>
+  <si>
+    <t>sitronsaft</t>
+  </si>
+  <si>
+    <t>limesaft</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>limeskall</t>
+  </si>
+  <si>
+    <t>revet</t>
+  </si>
+  <si>
+    <t>appelsinjuice</t>
+  </si>
+  <si>
+    <t>sitrongress</t>
+  </si>
+  <si>
+    <t>ingefær</t>
+  </si>
+  <si>
+    <t>finrevet</t>
+  </si>
+  <si>
+    <t>riseddik</t>
+  </si>
+  <si>
+    <t>sukker</t>
+  </si>
+  <si>
+    <t>koriander</t>
+  </si>
+  <si>
+    <t>finhakket</t>
+  </si>
+  <si>
+    <t>klyper</t>
+  </si>
+  <si>
+    <t>tørket chili</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>grønne epler</t>
+  </si>
+  <si>
+    <t>i små terninger</t>
+  </si>
+  <si>
+    <t>avokado</t>
+  </si>
+  <si>
+    <t>olivenolje</t>
+  </si>
+  <si>
+    <t>sesamolje</t>
+  </si>
+  <si>
+    <t>sesamfrø</t>
+  </si>
+  <si>
+    <t>hakket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,9 +462,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,6 +482,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,25 +805,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00308150-3F2A-4898-AED9-A341D247C347}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -524,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -555,8 +866,14 @@
       <c r="J2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -576,7 +893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -584,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -595,7 +912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -609,7 +926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -620,9 +937,835 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>0.5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>200</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>200</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>200</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" t="s">
+        <v>56</v>
+      </c>
+      <c r="L58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" t="s">
+        <v>113</v>
+      </c>
+      <c r="F65" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/LarsR.xlsx
+++ b/data/LarsR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4bd55f2dbbf3eb/work/recipes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{A9856337-4895-4674-926D-DF371BBFEA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C2EA8CA-F07B-4829-9DE8-B4099BDFAFA1}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="13_ncr:1_{A9856337-4895-4674-926D-DF371BBFEA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B77BA8C6-D12B-43A8-8B6F-F152D710E918}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="860" windowWidth="22180" windowHeight="15030" xr2:uid="{66F4FC48-351C-41B5-97D6-2EC88B6079B3}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="22180" windowHeight="15030" xr2:uid="{66F4FC48-351C-41B5-97D6-2EC88B6079B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="162">
   <si>
     <t>Name</t>
   </si>
@@ -269,9 +269,6 @@
     <t>til deigen er passe</t>
   </si>
   <si>
-    <t>Heves til dobbel størrelse.\nFormes til 4 runde brød\nPensle med olje og drysses med flaksalt\nEtterheves ca 1/2 time\nStekes på 210° i ca 15 min</t>
-  </si>
-  <si>
     <t>Halvbrunet urtesmør</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>(du kan bruke vanlig smør også, men jeg er litt hekta ;)</t>
   </si>
   <si>
-    <t>Ta ut smør så det blir romtemperert.\nBrun halvparten av smøret på medium varme, visp jevnlig, og sammenhengende på slutten – vær forsiktig så det ikke svir seg, ca 160° er passe (svir seg ved 180…). Avkjøl til romtemperatur.\nPisk sammen med resten av smøret – minst 5 minutter – luft er greia.</t>
-  </si>
-  <si>
     <t>Rør inn finhakket</t>
   </si>
   <si>
@@ -414,26 +408,136 @@
   </si>
   <si>
     <t>hakket</t>
+  </si>
+  <si>
+    <t>Kamskjell Tian</t>
+  </si>
+  <si>
+    <t>Simpsons Gravel Castle Chardonnay 2023 (Engelsk – Kent, pol #11051501) eller Tissot Chardonnay Patchwork 2023 (Jura, pol#19372701)</t>
+  </si>
+  <si>
+    <t>Hellstrøm hvit</t>
+  </si>
+  <si>
+    <t>Eyvind Hellstrøm</t>
+  </si>
+  <si>
+    <t>SJEKK ORIGINAL</t>
+  </si>
+  <si>
+    <t>Bakte cherrytomater</t>
+  </si>
+  <si>
+    <t>Squashkompott</t>
+  </si>
+  <si>
+    <t>Saus til kamskjell Tian</t>
+  </si>
+  <si>
+    <t>kamskjell</t>
+  </si>
+  <si>
+    <t>skjæres rå i skiver</t>
+  </si>
+  <si>
+    <t>Bruk ringer, 1 lag squash, 1 lag tomat, 1 lag kamskjell,\nstek på grillvarme i ovn 2-3 minutter\nServeres gjerne i skjellene, hell over saus</t>
+  </si>
+  <si>
+    <t>dryss over</t>
+  </si>
+  <si>
+    <t>cherrytomater</t>
+  </si>
+  <si>
+    <t>drysses med</t>
+  </si>
+  <si>
+    <t>+ salt&amp; pepper, bakes på 150° i 40 min</t>
+  </si>
+  <si>
+    <t>deles i to, i smurt form</t>
+  </si>
+  <si>
+    <t>kjøtt, fisk, nesten alt</t>
+  </si>
+  <si>
+    <t>squash</t>
+  </si>
+  <si>
+    <t>små – skrelles, kutt i små terninger, freses i smør, tilsett</t>
+  </si>
+  <si>
+    <t>kaldt vann</t>
+  </si>
+  <si>
+    <t>kok på sterk varme til vannet er fordampet, bland godt til kompottlignende, avkjøl</t>
+  </si>
+  <si>
+    <t>Riv skallet på</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>(saft presses etterpå)</t>
+  </si>
+  <si>
+    <t>Ofte</t>
+  </si>
+  <si>
+    <t>Finally</t>
+  </si>
+  <si>
+    <t>Heves til dobbel størrelse.\nFormes til 4 runde brød\nPensle med olje og drysses med flaksalt</t>
+  </si>
+  <si>
+    <t>Etterheves ca 1/2 time\nStekes på 210° i ca 15 min</t>
+  </si>
+  <si>
+    <t>Ta ut smør så det blir romtemperert.\nBrun halvparten av smøret på medium varme, visp jevnlig, og sammenhengende på slutten – vær forsiktig så det ikke svir seg, ca 160° er passe (svir seg ved 180…). Avkjøl til romtemperatur.</t>
+  </si>
+  <si>
+    <t>Pisk sammen med resten av smøret – minst 5 minutter – luft er greia.</t>
+  </si>
+  <si>
+    <t>sjalottløk</t>
+  </si>
+  <si>
+    <t>finhakket, kokes inn med</t>
+  </si>
+  <si>
+    <t>tørr hvitvin</t>
+  </si>
+  <si>
+    <t>kaldt smør</t>
+  </si>
+  <si>
+    <t>i terninger piskes inn, deretter</t>
+  </si>
+  <si>
+    <t>saft av</t>
+  </si>
+  <si>
+    <t>dryss av</t>
+  </si>
+  <si>
+    <t>kremfløte</t>
+  </si>
+  <si>
+    <t>lettpisket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -462,11 +566,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,11 +908,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00308150-3F2A-4898-AED9-A341D247C347}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
+      <pane ySplit="3" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -820,11 +923,12 @@
     <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -835,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -858,22 +962,25 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -893,7 +1000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -901,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -912,7 +1019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -926,7 +1033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -937,12 +1044,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -953,7 +1060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -972,17 +1079,17 @@
       <c r="F11" t="s">
         <v>55</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>56</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>33</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -999,7 +1106,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1016,7 +1123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1036,7 +1143,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1050,7 +1157,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1058,7 +1165,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1078,7 +1185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1092,10 +1199,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1103,7 +1210,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1123,7 +1230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1131,15 +1238,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1150,7 +1257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1170,16 +1277,19 @@
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" t="s">
         <v>62</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1193,7 +1303,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -1207,7 +1317,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1221,7 +1331,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1235,7 +1345,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -1249,7 +1359,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -1260,23 +1370,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
         <v>78</v>
       </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -1288,19 +1398,22 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>84</v>
-      </c>
-      <c r="I33" t="s">
-        <v>78</v>
-      </c>
-      <c r="L33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="H33" t="s">
+        <v>152</v>
+      </c>
+      <c r="J33" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
@@ -1308,41 +1421,41 @@
         <v>150</v>
       </c>
       <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
         <v>81</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>82</v>
       </c>
-      <c r="F34" t="s">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
         <v>85</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1361,31 +1474,31 @@
       <c r="F38" t="s">
         <v>55</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L38" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B40" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,13 +1506,13 @@
         <v>200</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,13 +1520,13 @@
         <v>200</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>23</v>
       </c>
@@ -1421,27 +1534,27 @@
         <v>200</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
         <v>95</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,15 +1562,15 @@
         <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -1471,19 +1584,19 @@
       <c r="F46" t="s">
         <v>55</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>56</v>
       </c>
-      <c r="L46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1492,10 +1605,10 @@
         <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>23</v>
       </c>
@@ -1506,10 +1619,10 @@
         <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
@@ -1520,10 +1633,10 @@
         <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>23</v>
       </c>
@@ -1531,16 +1644,16 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" t="s">
         <v>104</v>
       </c>
-      <c r="E50" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
@@ -1551,10 +1664,10 @@
         <v>71</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>23</v>
       </c>
@@ -1562,10 +1675,10 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,16 +1686,16 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>23</v>
       </c>
@@ -1593,10 +1706,10 @@
         <v>71</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>23</v>
       </c>
@@ -1607,10 +1720,10 @@
         <v>71</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>23</v>
       </c>
@@ -1621,13 +1734,13 @@
         <v>71</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,18 +1748,18 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -1660,14 +1773,14 @@
       <c r="F58" t="s">
         <v>55</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>56</v>
       </c>
-      <c r="L58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
@@ -1675,13 +1788,13 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -1689,13 +1802,13 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
@@ -1706,10 +1819,10 @@
         <v>71</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>23</v>
       </c>
@@ -1720,10 +1833,10 @@
         <v>71</v>
       </c>
       <c r="E62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>23</v>
       </c>
@@ -1731,13 +1844,13 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E63" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,13 +1858,13 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>23</v>
       </c>
@@ -1762,10 +1875,340 @@
         <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F65" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" t="s">
+        <v>133</v>
+      </c>
+      <c r="I68" t="s">
+        <v>127</v>
+      </c>
+      <c r="J68" t="s">
+        <v>125</v>
+      </c>
+      <c r="K68" t="s">
+        <v>29</v>
+      </c>
+      <c r="L68" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>131</v>
+      </c>
+      <c r="F72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>147</v>
+      </c>
+      <c r="M74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75">
+        <v>300</v>
+      </c>
+      <c r="D75" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77" t="s">
+        <v>87</v>
+      </c>
+      <c r="J77" t="s">
+        <v>125</v>
+      </c>
+      <c r="K77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>140</v>
+      </c>
+      <c r="F78" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>71</v>
+      </c>
+      <c r="E82" t="s">
+        <v>153</v>
+      </c>
+      <c r="F82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84">
+        <v>100</v>
+      </c>
+      <c r="D84" t="s">
+        <v>80</v>
+      </c>
+      <c r="E84" t="s">
+        <v>156</v>
+      </c>
+      <c r="F84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>158</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>159</v>
+      </c>
+      <c r="E87" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/LarsR.xlsx
+++ b/data/LarsR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4bd55f2dbbf3eb/work/recipes/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/EF4BD55F2DBBF3EB/work/recipes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="13_ncr:1_{A9856337-4895-4674-926D-DF371BBFEA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B77BA8C6-D12B-43A8-8B6F-F152D710E918}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="13_ncr:1_{A9856337-4895-4674-926D-DF371BBFEA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCC11B32-41B8-41E6-86CE-56BC971BD6BC}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="22180" windowHeight="15030" xr2:uid="{66F4FC48-351C-41B5-97D6-2EC88B6079B3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{66F4FC48-351C-41B5-97D6-2EC88B6079B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="168">
   <si>
     <t>Name</t>
   </si>
@@ -71,9 +71,6 @@
     <t>PageRef?</t>
   </si>
   <si>
-    <t>Prefix?</t>
-  </si>
-  <si>
     <t>Amount?:float</t>
   </si>
   <si>
@@ -116,15 +113,6 @@
     <t>+Subrecipe</t>
   </si>
   <si>
-    <t>+Attachment</t>
-  </si>
-  <si>
-    <t>Conversion</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
     <t>Ukjent</t>
   </si>
   <si>
@@ -452,9 +440,6 @@
     <t>drysses med</t>
   </si>
   <si>
-    <t>+ salt&amp; pepper, bakes på 150° i 40 min</t>
-  </si>
-  <si>
     <t>deles i to, i smurt form</t>
   </si>
   <si>
@@ -503,9 +488,6 @@
     <t>sjalottløk</t>
   </si>
   <si>
-    <t>finhakket, kokes inn med</t>
-  </si>
-  <si>
     <t>tørr hvitvin</t>
   </si>
   <si>
@@ -525,6 +507,42 @@
   </si>
   <si>
     <t>lettpisket</t>
+  </si>
+  <si>
+    <t>Preamble</t>
+  </si>
+  <si>
+    <t>prefix?</t>
+  </si>
+  <si>
+    <t>+ salt&amp; pepper</t>
+  </si>
+  <si>
+    <t>bakes på 150° i 40 min</t>
+  </si>
+  <si>
+    <t>kokes inn med</t>
+  </si>
+  <si>
+    <t># Source</t>
+  </si>
+  <si>
+    <t># Recipe</t>
+  </si>
+  <si>
+    <t># +Ingredient</t>
+  </si>
+  <si>
+    <t># +Subrecipe</t>
+  </si>
+  <si>
+    <t># +Attachment</t>
+  </si>
+  <si>
+    <t># Conversion</t>
+  </si>
+  <si>
+    <t># Temperature</t>
   </si>
 </sst>
 </file>
@@ -585,10 +603,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -911,8 +925,8 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -930,7 +944,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -941,7 +955,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -962,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -974,35 +988,38 @@
         <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1010,62 +1027,62 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
@@ -1077,126 +1094,126 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -1204,18 +1221,18 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -1227,42 +1244,42 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1274,119 +1291,119 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" t="s">
         <v>58</v>
       </c>
-      <c r="G25" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" t="s">
-        <v>150</v>
-      </c>
-      <c r="J25" t="s">
-        <v>62</v>
-      </c>
       <c r="M25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" t="s">
-        <v>73</v>
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -1398,58 +1415,58 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H33" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>150</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="G34" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -1457,10 +1474,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -1472,105 +1489,105 @@
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41">
         <v>200</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42">
         <v>200</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" t="s">
-        <v>92</v>
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43">
         <v>200</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="G43" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="F44" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" t="s">
-        <v>97</v>
+        <v>47</v>
+      </c>
+      <c r="F45" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -1582,184 +1599,184 @@
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" t="s">
-        <v>99</v>
+        <v>63</v>
+      </c>
+      <c r="F47" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" t="s">
-        <v>100</v>
+        <v>67</v>
+      </c>
+      <c r="F48" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
-      </c>
-      <c r="E49" t="s">
-        <v>101</v>
+        <v>67</v>
+      </c>
+      <c r="F49" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51">
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" t="s">
-        <v>105</v>
+        <v>67</v>
+      </c>
+      <c r="F51" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
-      <c r="E52" t="s">
-        <v>106</v>
+      <c r="F52" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" t="s">
-        <v>109</v>
+        <v>67</v>
+      </c>
+      <c r="F54" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
-      </c>
-      <c r="E55" t="s">
-        <v>110</v>
+        <v>67</v>
+      </c>
+      <c r="F55" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56">
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="F57" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -1771,133 +1788,133 @@
         <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M58" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
-      <c r="E59" t="s">
-        <v>116</v>
-      </c>
       <c r="F59" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="G59" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
-      <c r="E60" t="s">
-        <v>118</v>
-      </c>
       <c r="F60" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="G60" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61" t="s">
-        <v>119</v>
+        <v>67</v>
+      </c>
+      <c r="F61" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
-      </c>
-      <c r="E62" t="s">
-        <v>101</v>
+        <v>67</v>
+      </c>
+      <c r="F62" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>102</v>
-      </c>
-      <c r="E63" t="s">
-        <v>120</v>
+        <v>98</v>
+      </c>
+      <c r="F63" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>102</v>
-      </c>
-      <c r="E64" t="s">
-        <v>121</v>
+        <v>98</v>
+      </c>
+      <c r="F64" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65">
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -1909,79 +1926,79 @@
         <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H68" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I68" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J68" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K68" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L68" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D72">
         <v>15</v>
       </c>
-      <c r="E72" t="s">
-        <v>131</v>
-      </c>
       <c r="F72" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="G72" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
-      </c>
-      <c r="E73" t="s">
-        <v>103</v>
+        <v>130</v>
+      </c>
+      <c r="F73" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -1993,49 +2010,52 @@
         <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>147</v>
+        <v>142</v>
+      </c>
+      <c r="H74" t="s">
+        <v>159</v>
       </c>
       <c r="M74" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C75">
         <v>300</v>
       </c>
       <c r="D75" t="s">
-        <v>80</v>
-      </c>
-      <c r="E75" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="F75" t="s">
-        <v>138</v>
+        <v>131</v>
+      </c>
+      <c r="G75" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D76" t="s">
-        <v>119</v>
-      </c>
-      <c r="E76" t="s">
-        <v>137</v>
+        <v>115</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
@@ -2047,69 +2067,69 @@
         <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J77" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K77" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
-      <c r="E78" t="s">
-        <v>140</v>
-      </c>
       <c r="F78" t="s">
-        <v>141</v>
+        <v>135</v>
+      </c>
+      <c r="G78" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
-      </c>
-      <c r="E79" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="F79" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="G79" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
-      <c r="E80" t="s">
-        <v>145</v>
-      </c>
       <c r="F80" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="G80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
@@ -2121,94 +2141,97 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="G82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>67</v>
-      </c>
-      <c r="E83" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="F83" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84">
         <v>100</v>
       </c>
       <c r="D84" t="s">
-        <v>80</v>
-      </c>
-      <c r="E84" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="F84" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+      <c r="G84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E85" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F85" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
-      <c r="E86" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F86" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
-      </c>
-      <c r="E87" t="s">
-        <v>72</v>
+        <v>153</v>
+      </c>
+      <c r="F87" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/LarsR.xlsx
+++ b/data/LarsR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/EF4BD55F2DBBF3EB/work/recipes/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UTV\recipes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="13_ncr:1_{A9856337-4895-4674-926D-DF371BBFEA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCC11B32-41B8-41E6-86CE-56BC971BD6BC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE06258-C5B3-4B54-9AB8-8118E483E103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{66F4FC48-351C-41B5-97D6-2EC88B6079B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{66F4FC48-351C-41B5-97D6-2EC88B6079B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +558,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -584,10 +606,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,24 +952,24 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
-    <col min="9" max="9" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>161</v>
       </c>
@@ -953,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -994,7 +1021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>163</v>
       </c>
@@ -1017,7 +1044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>164</v>
       </c>
@@ -1025,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>165</v>
       </c>
@@ -1036,7 +1063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -1050,7 +1077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -1061,52 +1088,52 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="b">
+      <c r="C11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>12</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1123,7 +1150,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1140,7 +1167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1160,7 +1187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1174,7 +1201,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1182,7 +1209,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1202,7 +1229,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1216,38 +1243,38 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C21" t="b">
+      <c r="C21" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>12</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>5</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1255,7 +1282,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1263,7 +1290,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1274,39 +1301,39 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="b">
+      <c r="C25" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>4</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1320,7 +1347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1334,7 +1361,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1348,7 +1375,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -1362,7 +1389,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1376,7 +1403,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1387,50 +1414,50 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="33" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C33" t="b">
+      <c r="C33" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>4</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -1447,7 +1474,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -1458,7 +1485,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1469,36 +1496,36 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C38" t="b">
+      <c r="C38" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>4</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>5</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
@@ -1507,7 +1534,7 @@
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,7 +1542,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -1529,7 +1556,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1543,7 +1570,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -1560,7 +1587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -1571,7 +1598,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -1582,33 +1609,33 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="46" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C46" t="b">
+      <c r="C46" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>6</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>5</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -1625,7 +1652,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
@@ -1639,7 +1666,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -1653,7 +1680,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
@@ -1670,7 +1697,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -1684,7 +1711,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,7 +1722,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -1712,7 +1739,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -1726,7 +1753,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -1740,7 +1767,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -1757,7 +1784,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>22</v>
       </c>
@@ -1771,33 +1798,33 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="58" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C58" t="b">
+      <c r="C58" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>4</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>4</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -1811,7 +1838,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>22</v>
       </c>
@@ -1825,7 +1852,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
@@ -1839,7 +1866,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
@@ -1853,7 +1880,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>22</v>
       </c>
@@ -1867,7 +1894,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
@@ -1881,7 +1908,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>22</v>
       </c>
@@ -1898,53 +1925,53 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="67" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="68" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C68" t="b">
+      <c r="C68" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
         <v>4</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>4</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>23</v>
       </c>
@@ -1952,7 +1979,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>23</v>
       </c>
@@ -1960,7 +1987,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>23</v>
       </c>
@@ -1968,7 +1995,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>22</v>
       </c>
@@ -1982,7 +2009,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
@@ -1993,33 +2020,33 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="74" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C74" t="b">
+      <c r="C74" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <v>4</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>4</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>22</v>
       </c>
@@ -2036,7 +2063,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>22</v>
       </c>
@@ -2050,33 +2077,33 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+    <row r="77" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C77" t="b">
+      <c r="C77" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <v>4</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>3</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>22</v>
       </c>
@@ -2090,7 +2117,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>22</v>
       </c>
@@ -2107,7 +2134,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
@@ -2124,24 +2151,24 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C81" t="b">
+      <c r="C81" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>4</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>22</v>
       </c>
@@ -2161,7 +2188,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>22</v>
       </c>
@@ -2175,7 +2202,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>22</v>
       </c>
@@ -2192,7 +2219,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>22</v>
       </c>
@@ -2209,7 +2236,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>22</v>
       </c>
@@ -2223,7 +2250,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>22</v>
       </c>

--- a/data/LarsR.xlsx
+++ b/data/LarsR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UTV\recipes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE06258-C5B3-4B54-9AB8-8118E483E103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA13B026-50FA-4B5A-9190-96023ACC90A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{66F4FC48-351C-41B5-97D6-2EC88B6079B3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="169">
   <si>
     <t>Name</t>
   </si>
@@ -543,6 +543,9 @@
   </si>
   <si>
     <t># Temperature</t>
+  </si>
+  <si>
+    <t>x|</t>
   </si>
 </sst>
 </file>
@@ -952,8 +955,8 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E21" s="3">
         <v>5</v>
@@ -1290,14 +1293,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1962,7 +1965,7 @@
         <v>123</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>25</v>

--- a/data/LarsR.xlsx
+++ b/data/LarsR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UTV\recipes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/EF4BD55F2DBBF3EB/work/recipes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA13B026-50FA-4B5A-9190-96023ACC90A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{AA13B026-50FA-4B5A-9190-96023ACC90A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35AED03A-B27A-4E49-97AA-4208B4CA98A8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{66F4FC48-351C-41B5-97D6-2EC88B6079B3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{66F4FC48-351C-41B5-97D6-2EC88B6079B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="222">
   <si>
     <t>Name</t>
   </si>
@@ -546,6 +546,165 @@
   </si>
   <si>
     <t>x|</t>
+  </si>
+  <si>
+    <t>Hellstrøm blå</t>
+  </si>
+  <si>
+    <t>Sauce Vierge</t>
+  </si>
+  <si>
+    <t>Piggvar Vierge</t>
+  </si>
+  <si>
+    <t>Anrett fisken på sausen med grønnsaker og friske urter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piggvarkoteletter </t>
+  </si>
+  <si>
+    <t>Salt fisken litt i forvei</t>
+  </si>
+  <si>
+    <t>Stek i varm panne i olje 3-4 min på hver side til gyllenbrun, hold varm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sesongens grønnsaker, fx artisjokker, broccoli, vårløk, asparges, småpoteter </t>
+  </si>
+  <si>
+    <t>4-6 personer</t>
+  </si>
+  <si>
+    <t>Store tomater</t>
+  </si>
+  <si>
+    <t>Se over</t>
+  </si>
+  <si>
+    <t>extra virgin olivenolje</t>
+  </si>
+  <si>
+    <t>blandes i sausen</t>
+  </si>
+  <si>
+    <t>sammen med</t>
+  </si>
+  <si>
+    <t>hakkede</t>
+  </si>
+  <si>
+    <t>urter (fx estragon, kjørvel, persille, koriander)</t>
+  </si>
+  <si>
+    <t>smak til med</t>
+  </si>
+  <si>
+    <t>kajennepepper</t>
+  </si>
+  <si>
+    <t>fedd</t>
+  </si>
+  <si>
+    <t>finhakkes og kokes inn med tomatsausen</t>
+  </si>
+  <si>
+    <t>Snitt tomater i topp/bunn, noen sek i kokende vann, så isvann, flå dem.\nDel i 4, skrap ut kjernene.\nKjør skinn og kjerner til juice med stavmikse, sil, kok inn med hvitløk og litt salt til kompott, avkjøl.\nHakk tomatkjøttet grovt, bland med juicen</t>
+  </si>
+  <si>
+    <t>fisk</t>
+  </si>
+  <si>
+    <t>Toast med skagenrøre</t>
+  </si>
+  <si>
+    <t>reker</t>
+  </si>
+  <si>
+    <t>ferske pillede</t>
+  </si>
+  <si>
+    <t>Majones</t>
+  </si>
+  <si>
+    <t>majones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frisk revet </t>
+  </si>
+  <si>
+    <t>pepperrot</t>
+  </si>
+  <si>
+    <t>sitron</t>
+  </si>
+  <si>
+    <t>saft og filet av</t>
+  </si>
+  <si>
+    <t>smør</t>
+  </si>
+  <si>
+    <t>klares, til steking av brød</t>
+  </si>
+  <si>
+    <t>svart pepper</t>
+  </si>
+  <si>
+    <t>løyrom</t>
+  </si>
+  <si>
+    <t>(kan sløyfes)</t>
+  </si>
+  <si>
+    <t>brød</t>
+  </si>
+  <si>
+    <t>dill</t>
+  </si>
+  <si>
+    <t>frisk</t>
+  </si>
+  <si>
+    <t>stekes i klaret smør, evt uten skorpe</t>
+  </si>
+  <si>
+    <t>hakkes\nBland pillede reker, pepperrot, sitronsaft, majones, pepper og frisk hakket dill sammen til god konsistens</t>
+  </si>
+  <si>
+    <t>kvern en god dose</t>
+  </si>
+  <si>
+    <t>Anrett røre, mer dill, sitronfilet + evt løyrom på toppen av brødet</t>
+  </si>
+  <si>
+    <t>Visp sammen</t>
+  </si>
+  <si>
+    <t>eggeplommer</t>
+  </si>
+  <si>
+    <t>med 2-</t>
+  </si>
+  <si>
+    <t>dijonsennep</t>
+  </si>
+  <si>
+    <t>hvit pepper</t>
+  </si>
+  <si>
+    <t>og saft fra</t>
+  </si>
+  <si>
+    <t>Spe litt og litt</t>
+  </si>
+  <si>
+    <t>(solsikke/jordnøtt/oliven-)</t>
+  </si>
+  <si>
+    <t>til passe tykk konsistens, bruk gjerne kjøkkenmaskin</t>
+  </si>
+  <si>
+    <t>Oppbevares kaldt</t>
   </si>
 </sst>
 </file>
@@ -609,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -618,6 +777,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,27 +1112,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00308150-3F2A-4898-AED9-A341D247C347}">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <pane ySplit="3" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>161</v>
       </c>
@@ -983,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -1024,7 +1184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>163</v>
       </c>
@@ -1047,7 +1207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>164</v>
       </c>
@@ -1055,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>165</v>
       </c>
@@ -1066,7 +1226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -1080,7 +1240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -1091,12 +1251,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1107,7 +1267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1136,7 +1296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1153,7 +1313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1170,7 +1330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1190,7 +1350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1204,7 +1364,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1212,7 +1372,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1232,7 +1392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1246,10 +1406,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -1257,7 +1417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -1277,7 +1437,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1285,7 +1445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1293,7 +1453,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
@@ -1304,7 +1464,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1336,7 +1496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1350,7 +1510,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1364,7 +1524,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1378,7 +1538,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -1392,7 +1552,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1406,7 +1566,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1417,7 +1577,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>20</v>
       </c>
@@ -1428,7 +1588,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -1460,7 +1620,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -1477,7 +1637,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -1488,7 +1648,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1499,10 +1659,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
@@ -1528,7 +1688,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
@@ -1537,7 +1697,7 @@
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
@@ -1545,7 +1705,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -1559,7 +1719,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1573,7 +1733,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -1590,7 +1750,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -1601,7 +1761,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -1612,7 +1772,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
@@ -1638,7 +1798,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -1655,7 +1815,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
@@ -1669,7 +1829,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -1683,7 +1843,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
@@ -1700,7 +1860,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,7 +1874,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -1725,7 +1885,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -1742,7 +1902,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,7 +1916,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -1770,7 +1930,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -1787,7 +1947,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>22</v>
       </c>
@@ -1801,7 +1961,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
@@ -1827,7 +1987,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -1841,7 +2001,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>22</v>
       </c>
@@ -1855,7 +2015,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
@@ -1869,7 +2029,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
@@ -1883,7 +2043,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>22</v>
       </c>
@@ -1897,7 +2057,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
@@ -1911,7 +2071,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>22</v>
       </c>
@@ -1928,7 +2088,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>20</v>
       </c>
@@ -1939,7 +2099,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>21</v>
       </c>
@@ -1974,7 +2134,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>23</v>
       </c>
@@ -1982,7 +2142,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>23</v>
       </c>
@@ -1990,7 +2150,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,7 +2158,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>22</v>
       </c>
@@ -2012,7 +2172,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
@@ -2023,7 +2183,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>21</v>
       </c>
@@ -2031,7 +2191,7 @@
         <v>124</v>
       </c>
       <c r="C74" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="3">
         <v>4</v>
@@ -2049,7 +2209,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>22</v>
       </c>
@@ -2066,7 +2226,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>22</v>
       </c>
@@ -2080,7 +2240,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>21</v>
       </c>
@@ -2106,7 +2266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,7 +2280,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>22</v>
       </c>
@@ -2137,7 +2297,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
@@ -2154,7 +2314,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>21</v>
       </c>
@@ -2171,7 +2331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>22</v>
       </c>
@@ -2191,7 +2351,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>22</v>
       </c>
@@ -2205,7 +2365,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>22</v>
       </c>
@@ -2222,7 +2382,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>22</v>
       </c>
@@ -2239,7 +2399,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>22</v>
       </c>
@@ -2253,7 +2413,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>22</v>
       </c>
@@ -2262,6 +2422,520 @@
       </c>
       <c r="F87" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3">
+        <v>4</v>
+      </c>
+      <c r="E90" s="3">
+        <v>5</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K90" s="3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="F93" t="s">
+        <v>173</v>
+      </c>
+      <c r="G93" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" s="3">
+        <v>6</v>
+      </c>
+      <c r="E95" s="3">
+        <v>5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>189</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K95" s="3">
+        <v>258</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>178</v>
+      </c>
+      <c r="G96" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>187</v>
+      </c>
+      <c r="E97" t="s">
+        <v>82</v>
+      </c>
+      <c r="F97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98">
+        <v>2.5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>63</v>
+      </c>
+      <c r="F98" t="s">
+        <v>180</v>
+      </c>
+      <c r="G98" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>67</v>
+      </c>
+      <c r="E99" t="s">
+        <v>183</v>
+      </c>
+      <c r="F99" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" t="s">
+        <v>185</v>
+      </c>
+      <c r="F100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+      <c r="F101" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C103" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" s="3">
+        <v>4</v>
+      </c>
+      <c r="E103" s="3">
+        <v>6</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K103" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8">
+        <v>100</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106">
+        <v>400</v>
+      </c>
+      <c r="D106" t="s">
+        <v>76</v>
+      </c>
+      <c r="E106" t="s">
+        <v>193</v>
+      </c>
+      <c r="F106" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F107" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>67</v>
+      </c>
+      <c r="E108" t="s">
+        <v>196</v>
+      </c>
+      <c r="F108" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>199</v>
+      </c>
+      <c r="F109" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111">
+        <v>100</v>
+      </c>
+      <c r="D111" t="s">
+        <v>76</v>
+      </c>
+      <c r="F111" t="s">
+        <v>203</v>
+      </c>
+      <c r="G111" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F112" t="s">
+        <v>205</v>
+      </c>
+      <c r="G112" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" t="s">
+        <v>207</v>
+      </c>
+      <c r="F113" t="s">
+        <v>206</v>
+      </c>
+      <c r="G113" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
+        <v>4</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K115" s="3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" t="s">
+        <v>212</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B117" t="s">
+        <v>214</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117" t="s">
+        <v>67</v>
+      </c>
+      <c r="F117" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>98</v>
+      </c>
+      <c r="F118" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>98</v>
+      </c>
+      <c r="F119" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F120" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B121" t="s">
+        <v>217</v>
+      </c>
+      <c r="C121">
+        <v>0.25</v>
+      </c>
+      <c r="F121" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
+        <v>218</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>63</v>
+      </c>
+      <c r="E122" t="s">
+        <v>219</v>
+      </c>
+      <c r="F122" t="s">
+        <v>69</v>
+      </c>
+      <c r="G122" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/data/LarsR.xlsx
+++ b/data/LarsR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/EF4BD55F2DBBF3EB/work/recipes/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UTV\recipes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{AA13B026-50FA-4B5A-9190-96023ACC90A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35AED03A-B27A-4E49-97AA-4208B4CA98A8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0C75B4-DC9B-43F3-B901-69272A08405C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{66F4FC48-351C-41B5-97D6-2EC88B6079B3}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="13500" xr2:uid="{66F4FC48-351C-41B5-97D6-2EC88B6079B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="222">
   <si>
     <t>Name</t>
   </si>
@@ -768,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -777,7 +777,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1115,24 +1114,24 @@
   <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H116" sqref="H116"/>
+      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A119" sqref="A119:A122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
-    <col min="9" max="9" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>161</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -1184,7 +1183,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>163</v>
       </c>
@@ -1207,7 +1206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>164</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>165</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -1240,7 +1239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -1251,12 +1250,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1296,7 +1295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1313,7 +1312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1330,7 +1329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1350,7 +1349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1364,7 +1363,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1372,7 +1371,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1392,7 +1391,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1406,10 +1405,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -1417,7 +1416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1445,7 +1444,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,7 +1452,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
@@ -1464,7 +1463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1496,7 +1495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1510,7 +1509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1524,7 +1523,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1538,7 +1537,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -1552,7 +1551,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1566,7 +1565,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1577,7 +1576,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>20</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -1620,7 +1619,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -1637,7 +1636,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -1648,7 +1647,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,10 +1658,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,7 +1696,7 @@
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -1719,7 +1718,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1733,7 +1732,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -1761,7 +1760,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -1772,7 +1771,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
@@ -1798,7 +1797,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
@@ -1829,7 +1828,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -1843,7 +1842,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
@@ -1860,7 +1859,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -1874,7 +1873,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -1885,7 +1884,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -1902,7 +1901,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -1916,7 +1915,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -1930,7 +1929,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -1947,7 +1946,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>22</v>
       </c>
@@ -1961,7 +1960,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
@@ -1987,7 +1986,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -2001,7 +2000,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>22</v>
       </c>
@@ -2015,7 +2014,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
@@ -2029,7 +2028,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
@@ -2043,7 +2042,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>22</v>
       </c>
@@ -2057,7 +2056,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>22</v>
       </c>
@@ -2088,7 +2087,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>20</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>21</v>
       </c>
@@ -2134,7 +2133,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>23</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>23</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>23</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>22</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
@@ -2183,7 +2182,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>21</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>22</v>
       </c>
@@ -2226,7 +2225,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>22</v>
       </c>
@@ -2240,7 +2239,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>21</v>
       </c>
@@ -2266,7 +2265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>22</v>
       </c>
@@ -2280,7 +2279,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>22</v>
       </c>
@@ -2297,7 +2296,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
@@ -2314,7 +2313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>21</v>
       </c>
@@ -2331,7 +2330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>22</v>
       </c>
@@ -2351,7 +2350,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>22</v>
       </c>
@@ -2365,7 +2364,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>22</v>
       </c>
@@ -2382,7 +2381,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>22</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>22</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>22</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>20</v>
       </c>
@@ -2435,7 +2434,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2465,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>23</v>
       </c>
@@ -2474,7 +2473,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>22</v>
       </c>
@@ -2482,7 +2481,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>22</v>
       </c>
@@ -2496,7 +2495,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>22</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>21</v>
       </c>
@@ -2543,7 +2542,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>22</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>22</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>22</v>
       </c>
@@ -2591,7 +2590,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>22</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>22</v>
       </c>
@@ -2622,7 +2621,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>22</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>21</v>
       </c>
@@ -2662,45 +2661,32 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" t="s">
         <v>194</v>
       </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8">
+      <c r="C105">
         <v>100</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" t="s">
         <v>76</v>
       </c>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8" t="s">
+      <c r="F105" t="s">
         <v>200</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" t="s">
         <v>201</v>
       </c>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>22</v>
       </c>
@@ -2717,7 +2703,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>22</v>
       </c>
@@ -2731,7 +2717,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>22</v>
       </c>
@@ -2748,7 +2734,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>22</v>
       </c>
@@ -2762,7 +2748,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>22</v>
       </c>
@@ -2773,7 +2759,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>22</v>
       </c>
@@ -2790,7 +2776,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>22</v>
       </c>
@@ -2801,7 +2787,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>22</v>
       </c>
@@ -2815,7 +2801,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>21</v>
       </c>
@@ -2846,7 +2832,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>22</v>
       </c>
@@ -2860,7 +2846,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>22</v>
       </c>
@@ -2877,7 +2863,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>22</v>
       </c>
@@ -2891,7 +2877,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C119">
         <v>1</v>
       </c>
@@ -2902,12 +2891,18 @@
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F120" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B121" t="s">
         <v>217</v>
       </c>
@@ -2918,7 +2913,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B122" t="s">
         <v>218</v>
       </c>

--- a/data/LarsR.xlsx
+++ b/data/LarsR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UTV\recipes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0C75B4-DC9B-43F3-B901-69272A08405C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F320BA-B1C7-4AE5-A052-4BC0DAB6529C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="13500" xr2:uid="{66F4FC48-351C-41B5-97D6-2EC88B6079B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{66F4FC48-351C-41B5-97D6-2EC88B6079B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="227">
   <si>
     <t>Name</t>
   </si>
@@ -705,6 +705,21 @@
   </si>
   <si>
     <t>Oppbevares kaldt</t>
+  </si>
+  <si>
+    <t>Categories?</t>
+  </si>
+  <si>
+    <t>Hovedrett</t>
+  </si>
+  <si>
+    <t>Saus</t>
+  </si>
+  <si>
+    <t>Hovedrett,Forrett</t>
+  </si>
+  <si>
+    <t>Tilbehør,Saus</t>
   </si>
 </sst>
 </file>
@@ -1111,11 +1126,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00308150-3F2A-4898-AED9-A341D247C347}">
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A119" sqref="A119:A122"/>
+      <pane ySplit="3" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N114" sqref="N114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,7 +1146,7 @@
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>161</v>
       </c>
@@ -1142,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -1182,8 +1197,11 @@
       <c r="M2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>163</v>
       </c>
@@ -1206,7 +1224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>164</v>
       </c>
@@ -1214,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>165</v>
       </c>
@@ -1225,7 +1243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -1239,7 +1257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -1250,12 +1268,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1266,7 +1284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1291,11 +1309,11 @@
       <c r="L11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1312,7 +1330,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1329,7 +1347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1349,7 +1367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1363,7 +1381,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1371,7 +1389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1391,7 +1409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1405,10 +1423,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -1416,7 +1434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -1436,7 +1454,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1444,7 +1462,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,7 +1470,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
@@ -1463,7 +1481,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1491,11 +1509,11 @@
       <c r="J25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1509,7 +1527,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1523,7 +1541,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1537,7 +1555,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -1551,7 +1569,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1565,7 +1583,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1576,7 +1594,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>20</v>
       </c>
@@ -1587,7 +1605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -1618,8 +1636,11 @@
       <c r="M33" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N33" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -1636,7 +1657,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -1647,7 +1668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1658,10 +1679,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
@@ -1686,8 +1707,11 @@
       <c r="L38" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,7 +1720,7 @@
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
@@ -1704,7 +1728,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -1718,7 +1742,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1732,7 +1756,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -1749,7 +1773,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -1760,7 +1784,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -1771,7 +1795,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
@@ -1796,8 +1820,11 @@
       <c r="M46" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -1814,7 +1841,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
@@ -1828,7 +1855,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -1842,7 +1869,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
@@ -1859,7 +1886,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -1873,7 +1900,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -1884,7 +1911,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -1901,7 +1928,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -1915,7 +1942,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -1929,7 +1956,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -1946,7 +1973,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>22</v>
       </c>
@@ -1960,7 +1987,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
@@ -1985,8 +2012,11 @@
       <c r="M58" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N58" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -2000,7 +2030,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>22</v>
       </c>
@@ -2014,7 +2044,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
@@ -2028,7 +2058,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
@@ -2042,7 +2072,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>22</v>
       </c>
@@ -2056,7 +2086,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
@@ -2070,7 +2100,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>22</v>
       </c>
@@ -2087,7 +2117,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>20</v>
       </c>
@@ -2098,7 +2128,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>21</v>
       </c>
@@ -2132,8 +2162,11 @@
       <c r="L68" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>23</v>
       </c>
@@ -2141,7 +2174,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>23</v>
       </c>
@@ -2149,7 +2182,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>23</v>
       </c>
@@ -2157,7 +2190,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>22</v>
       </c>
@@ -2171,7 +2204,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
@@ -2182,7 +2215,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>21</v>
       </c>
@@ -2207,8 +2240,11 @@
       <c r="M74" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>22</v>
       </c>
@@ -2225,7 +2261,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>22</v>
       </c>
@@ -2239,7 +2275,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>21</v>
       </c>
@@ -2265,7 +2301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>22</v>
       </c>
@@ -2279,7 +2315,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>22</v>
       </c>
@@ -2295,8 +2331,11 @@
       <c r="G79" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N79" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
@@ -2313,7 +2352,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>21</v>
       </c>
@@ -2330,7 +2369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>22</v>
       </c>
@@ -2350,7 +2389,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>22</v>
       </c>
@@ -2364,7 +2403,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>22</v>
       </c>
@@ -2381,7 +2420,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>22</v>
       </c>
@@ -2398,7 +2437,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>22</v>
       </c>
@@ -2412,7 +2451,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>22</v>
       </c>
@@ -2423,7 +2462,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>20</v>
       </c>
@@ -2434,7 +2473,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>21</v>
       </c>
@@ -2464,8 +2503,11 @@
       <c r="K90" s="3">
         <v>172</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>23</v>
       </c>
@@ -2473,7 +2515,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>22</v>
       </c>
@@ -2481,7 +2523,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>22</v>
       </c>
@@ -2495,7 +2537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>22</v>
       </c>
@@ -2509,7 +2551,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>21</v>
       </c>
@@ -2541,8 +2583,11 @@
       <c r="M95" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>22</v>
       </c>
@@ -2556,7 +2601,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>22</v>
       </c>
@@ -2573,7 +2618,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>22</v>
       </c>
@@ -2590,7 +2635,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>22</v>
       </c>
@@ -2610,7 +2655,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>22</v>
       </c>
@@ -2621,7 +2666,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>22</v>
       </c>
@@ -2632,7 +2677,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>21</v>
       </c>
@@ -2660,8 +2705,11 @@
       <c r="K103" s="3">
         <v>205</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N103" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>23</v>
       </c>
@@ -2669,7 +2717,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>22</v>
       </c>
@@ -2686,7 +2734,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>22</v>
       </c>
@@ -2703,7 +2751,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>22</v>
       </c>
@@ -2717,7 +2765,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>22</v>
       </c>
@@ -2734,7 +2782,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>22</v>
       </c>
@@ -2748,7 +2796,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>22</v>
       </c>
@@ -2759,7 +2807,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>22</v>
       </c>
@@ -2776,7 +2824,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>22</v>
       </c>
@@ -2787,7 +2835,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>22</v>
       </c>
@@ -2801,7 +2849,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>21</v>
       </c>
@@ -2831,8 +2879,11 @@
       <c r="K115" s="3">
         <v>247</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N115" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>22</v>
       </c>
@@ -2846,7 +2897,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>22</v>
       </c>
@@ -2863,7 +2914,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>22</v>
       </c>
@@ -2877,7 +2928,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>22</v>
       </c>
@@ -2891,7 +2942,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>22</v>
       </c>
@@ -2899,7 +2950,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>22</v>
       </c>
@@ -2913,7 +2964,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>22</v>
       </c>
@@ -2938,6 +2989,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/LarsR.xlsx
+++ b/data/LarsR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UTV\recipes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F320BA-B1C7-4AE5-A052-4BC0DAB6529C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0003D92B-E067-4441-BA15-49C4914FEB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{66F4FC48-351C-41B5-97D6-2EC88B6079B3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc198583186" localSheetId="0">Sheet1!$B$40</definedName>
+    <definedName name="_Toc198583186" localSheetId="0">Sheet1!$B$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="268">
   <si>
     <t>Name</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Served?</t>
   </si>
   <si>
-    <t>Instructions</t>
-  </si>
-  <si>
     <t>Notes?</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>Pet Nat Rosé by Toni Hartl 2022  https://www.vinmonopolet.no/Land/%C3%98sterrike/%C3%96sterreichischer-W-/Pet-Nat-Ros%C3%A9-by-Toni-Hartl-2022/p/17124101 (musserende rosé, Østerrike – polet #17124101) eller dens hvite søster</t>
   </si>
   <si>
-    <t>Forrett</t>
-  </si>
-  <si>
     <t>stk</t>
   </si>
   <si>
@@ -470,9 +464,6 @@
     <t>Ofte</t>
   </si>
   <si>
-    <t>Finally</t>
-  </si>
-  <si>
     <t>Heves til dobbel størrelse.\nFormes til 4 runde brød\nPensle med olje og drysses med flaksalt</t>
   </si>
   <si>
@@ -545,9 +536,6 @@
     <t># Temperature</t>
   </si>
   <si>
-    <t>x|</t>
-  </si>
-  <si>
     <t>Hellstrøm blå</t>
   </si>
   <si>
@@ -710,16 +698,151 @@
     <t>Categories?</t>
   </si>
   <si>
-    <t>Hovedrett</t>
-  </si>
-  <si>
     <t>Saus</t>
   </si>
   <si>
-    <t>Hovedrett,Forrett</t>
-  </si>
-  <si>
     <t>Tilbehør,Saus</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Eyvind Hellstrøm, Anita Rennan</t>
+  </si>
+  <si>
+    <t>Hellstrøms hemmeligheter fra havet</t>
+  </si>
+  <si>
+    <t>Akkar</t>
+  </si>
+  <si>
+    <t>Aldri</t>
+  </si>
+  <si>
+    <t>Diverse akkar-oppskrifter</t>
+  </si>
+  <si>
+    <t>Bakerens poteter og dagens fangst</t>
+  </si>
+  <si>
+    <t>Fisk, potet. Blåskjell, paprika</t>
+  </si>
+  <si>
+    <t>Blåskjell</t>
+  </si>
+  <si>
+    <t>Diverse blåskjell-oppskrifter</t>
+  </si>
+  <si>
+    <t>Boknafisk</t>
+  </si>
+  <si>
+    <t>Fisk, gulrøtter, rømme, pastinakk, poteter, vårloø, sukkererter</t>
+  </si>
+  <si>
+    <t>Breflabb, Bønner og Béarnaise</t>
+  </si>
+  <si>
+    <t>Breiflabb, asparges, brokkoli, purreløk, kapers, bearnaise</t>
+  </si>
+  <si>
+    <t>Breflabb Bucatini</t>
+  </si>
+  <si>
+    <t>Breiflabb, skalldyr, sopp, bucatini/spaghetti, basilikum</t>
+  </si>
+  <si>
+    <t>Forrett,Frukt</t>
+  </si>
+  <si>
+    <t>Tilbehør,Bakverk</t>
+  </si>
+  <si>
+    <t>Hovedrett,Fisk</t>
+  </si>
+  <si>
+    <t>Tilbehør,Vegetar</t>
+  </si>
+  <si>
+    <t>Saus,Vegetar</t>
+  </si>
+  <si>
+    <t>Hovedrett,Forrett,Fisk</t>
+  </si>
+  <si>
+    <t>Breflabb Beurre Rouge</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Breflabb,rødvin,erter,urter</t>
+  </si>
+  <si>
+    <t>Cevice som i Peru</t>
+  </si>
+  <si>
+    <t>Fisk,kiwi, lime, pomelo/grapefrukt, agurk, rødløk, habanero, koriander</t>
+  </si>
+  <si>
+    <t>Hurtigfriterte poteter</t>
+  </si>
+  <si>
+    <t>Fish &amp; chips uten saus</t>
+  </si>
+  <si>
+    <t>hvit fisk</t>
+  </si>
+  <si>
+    <t>Tempurarøre</t>
+  </si>
+  <si>
+    <t>tempurarøre</t>
+  </si>
+  <si>
+    <t>egen oppskrift</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>til steking</t>
+  </si>
+  <si>
+    <t>vineddik</t>
+  </si>
+  <si>
+    <t>deles i biter, tørkes på kjøkkenpapir, vendes i tempurarøre\nstek i flere omganger og renn av på tørkepapir</t>
+  </si>
+  <si>
+    <t>salte litt på tørkepapiret</t>
+  </si>
+  <si>
+    <t>Instructions?</t>
+  </si>
+  <si>
+    <t>Closing?</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Convversion</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Vann</t>
+  </si>
+  <si>
+    <t># emacs</t>
+  </si>
+  <si>
+    <t>(query-replace-regexp "\\([0-9]\\)[,]\\([0-9]\\)" "\\1.\\2")</t>
   </si>
 </sst>
 </file>
@@ -1126,11 +1249,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00308150-3F2A-4898-AED9-A341D247C347}">
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N114" sqref="N114"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,7 +1271,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1156,10 +1279,13 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1177,56 +1303,56 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
       <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
       <c r="N2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1234,974 +1360,972 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>30</v>
+      <c r="A8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
+        <v>264</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="3">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>54</v>
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="3" t="b">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="D25" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" t="s">
-        <v>62</v>
+      <c r="B26" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29">
-        <v>0.5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" t="s">
-        <v>68</v>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="3" t="b">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>60</v>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3">
-        <v>4</v>
-      </c>
-      <c r="E38" s="3">
-        <v>5</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>223</v>
+      <c r="G37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="F39" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41">
-        <v>200</v>
-      </c>
-      <c r="D41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42">
-        <v>200</v>
-      </c>
-      <c r="D42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" t="s">
-        <v>88</v>
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D42" s="3">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C43">
-        <v>200</v>
-      </c>
-      <c r="D43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" t="s">
-        <v>90</v>
-      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" t="s">
-        <v>92</v>
+      <c r="B44" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>200</v>
+      </c>
+      <c r="D45" t="s">
+        <v>74</v>
       </c>
       <c r="F45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <v>6</v>
-      </c>
-      <c r="E46" s="3">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>224</v>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>200</v>
+      </c>
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F47" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="G47" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48" t="s">
-        <v>67</v>
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>67</v>
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" t="s">
-        <v>100</v>
-      </c>
-      <c r="F50" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D50" s="3">
+        <v>6</v>
+      </c>
+      <c r="E50" s="3">
+        <v>5</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>65</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="F53" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>96</v>
+      </c>
+      <c r="E54" t="s">
+        <v>98</v>
       </c>
       <c r="F54" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="E57" t="s">
+        <v>102</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>60</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
-      </c>
-      <c r="G59" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" t="s">
+        <v>106</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
-      </c>
-      <c r="G60" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>67</v>
-      </c>
-      <c r="F62" t="s">
-        <v>97</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" s="3">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="G63" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C64">
-        <v>4</v>
-      </c>
-      <c r="D64" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="G64" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="F65" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D68" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68">
         <v>4</v>
       </c>
-      <c r="E68" s="3">
-        <v>4</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>223</v>
+      <c r="D68" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72">
-        <v>15</v>
-      </c>
-      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" s="3">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G72" t="s">
-        <v>128</v>
+      <c r="I72" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -2209,782 +2333,1214 @@
         <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
-      </c>
-      <c r="F73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74" s="3">
-        <v>4</v>
-      </c>
-      <c r="E74" s="3">
-        <v>4</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>60</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C75">
-        <v>300</v>
-      </c>
-      <c r="D75" t="s">
-        <v>76</v>
-      </c>
-      <c r="F75" t="s">
-        <v>131</v>
-      </c>
-      <c r="G75" t="s">
-        <v>133</v>
+      <c r="B75" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>125</v>
+      </c>
+      <c r="G76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D78" s="3">
+        <v>4</v>
+      </c>
+      <c r="E78" s="3">
+        <v>4</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M78" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D76" t="s">
-        <v>115</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D77" s="3">
-        <v>4</v>
-      </c>
-      <c r="E77" s="3">
-        <v>3</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s">
-        <v>135</v>
-      </c>
-      <c r="G78" t="s">
-        <v>136</v>
+      <c r="N78" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="D79" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F79" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G79" t="s">
-        <v>138</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
-      </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s">
-        <v>140</v>
-      </c>
-      <c r="G80" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="D80" t="s">
+        <v>113</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C81" s="3" t="b">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="D81" s="3">
         <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
-      <c r="D82" t="s">
-        <v>67</v>
-      </c>
-      <c r="E82" t="s">
-        <v>108</v>
-      </c>
       <c r="F82" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="G82" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F83" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G83" t="s">
+        <v>136</v>
+      </c>
+      <c r="N83" s="3"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>137</v>
       </c>
       <c r="C84">
-        <v>100</v>
-      </c>
-      <c r="D84" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G84" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>63</v>
-      </c>
-      <c r="E85" t="s">
-        <v>155</v>
-      </c>
-      <c r="F85" t="s">
-        <v>154</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D85" s="3">
+        <v>4</v>
+      </c>
+      <c r="E85" s="3">
+        <v>4</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B86" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
+      <c r="D86" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86" t="s">
+        <v>106</v>
+      </c>
       <c r="F86" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="G86" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" t="s">
-        <v>153</v>
+        <v>21</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>61</v>
       </c>
       <c r="F87" t="s">
-        <v>68</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88">
+        <v>100</v>
+      </c>
+      <c r="D88" t="s">
+        <v>74</v>
+      </c>
+      <c r="F88" t="s">
+        <v>147</v>
+      </c>
+      <c r="G88" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>122</v>
+      <c r="A89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>61</v>
+      </c>
+      <c r="E89" t="s">
+        <v>152</v>
+      </c>
+      <c r="F89" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C90" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D90" s="3">
-        <v>4</v>
-      </c>
-      <c r="E90" s="3">
-        <v>5</v>
-      </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K90" s="3">
-        <v>172</v>
-      </c>
-      <c r="N90" s="3" t="s">
-        <v>223</v>
+      <c r="A90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
+        <v>150</v>
+      </c>
+      <c r="F91" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D94" s="3">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="H94" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K94" s="3">
+        <v>172</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F92" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93">
-        <v>4</v>
-      </c>
-      <c r="F93" t="s">
-        <v>173</v>
-      </c>
-      <c r="G93" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94">
-        <v>4</v>
-      </c>
-      <c r="D94" t="s">
-        <v>63</v>
-      </c>
-      <c r="F94" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C95" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D95" s="3">
-        <v>6</v>
-      </c>
-      <c r="E95" s="3">
-        <v>5</v>
-      </c>
-      <c r="G95" t="s">
-        <v>189</v>
-      </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K95" s="3">
-        <v>258</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N95" s="3" t="s">
-        <v>224</v>
+      <c r="B95" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F96" t="s">
-        <v>178</v>
-      </c>
-      <c r="G96" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C97">
-        <v>2</v>
-      </c>
-      <c r="D97" t="s">
-        <v>187</v>
-      </c>
-      <c r="E97" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>169</v>
+      </c>
+      <c r="G97" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C98">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F98" t="s">
-        <v>180</v>
-      </c>
-      <c r="G98" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B99" t="s">
-        <v>182</v>
-      </c>
-      <c r="C99">
-        <v>4</v>
-      </c>
-      <c r="D99" t="s">
-        <v>67</v>
-      </c>
-      <c r="E99" t="s">
-        <v>183</v>
-      </c>
-      <c r="F99" t="s">
-        <v>184</v>
+      <c r="A99" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D99" s="3">
+        <v>6</v>
+      </c>
+      <c r="E99" s="3">
+        <v>5</v>
+      </c>
+      <c r="G99" t="s">
+        <v>185</v>
+      </c>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K99" s="3">
+        <v>258</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B100" t="s">
-        <v>185</v>
+        <v>21</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
       </c>
       <c r="F100" t="s">
-        <v>68</v>
+        <v>174</v>
+      </c>
+      <c r="G100" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B101" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>183</v>
+      </c>
+      <c r="E101" t="s">
+        <v>80</v>
       </c>
       <c r="F101" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102">
+        <v>2.5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>61</v>
+      </c>
+      <c r="F102" t="s">
+        <v>176</v>
+      </c>
+      <c r="G102" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C103" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D103" s="3">
+      <c r="A103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>178</v>
+      </c>
+      <c r="C103">
         <v>4</v>
       </c>
-      <c r="E103" s="3">
-        <v>6</v>
-      </c>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K103" s="3">
-        <v>205</v>
-      </c>
-      <c r="N103" s="3" t="s">
-        <v>225</v>
+      <c r="D103" t="s">
+        <v>65</v>
+      </c>
+      <c r="E103" t="s">
+        <v>179</v>
+      </c>
+      <c r="F103" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>194</v>
+        <v>181</v>
+      </c>
+      <c r="F104" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C105">
-        <v>100</v>
-      </c>
-      <c r="D105" t="s">
-        <v>76</v>
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
-      </c>
-      <c r="G105" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106">
-        <v>400</v>
-      </c>
-      <c r="D106" t="s">
-        <v>76</v>
-      </c>
-      <c r="E106" t="s">
-        <v>193</v>
-      </c>
-      <c r="F106" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C107">
+      <c r="A107" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D107" s="3">
         <v>4</v>
       </c>
-      <c r="D107" t="s">
-        <v>67</v>
-      </c>
-      <c r="F107" t="s">
-        <v>195</v>
+      <c r="E107" s="3">
+        <v>6</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K107" s="3">
+        <v>205</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C108">
-        <v>4</v>
-      </c>
-      <c r="D108" t="s">
-        <v>67</v>
-      </c>
-      <c r="E108" t="s">
-        <v>196</v>
-      </c>
-      <c r="F108" t="s">
-        <v>197</v>
+      <c r="B108" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="E109" t="s">
-        <v>199</v>
+        <v>100</v>
+      </c>
+      <c r="D109" t="s">
+        <v>74</v>
       </c>
       <c r="F109" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="G109" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C110">
+        <v>400</v>
+      </c>
+      <c r="D110" t="s">
+        <v>74</v>
       </c>
       <c r="E110" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F110" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C111">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F111" t="s">
-        <v>203</v>
-      </c>
-      <c r="G111" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>65</v>
+      </c>
+      <c r="E112" t="s">
+        <v>192</v>
       </c>
       <c r="F112" t="s">
-        <v>205</v>
-      </c>
-      <c r="G112" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F113" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" t="s">
         <v>206</v>
       </c>
-      <c r="G113" t="s">
-        <v>209</v>
+      <c r="F114" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C115" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D115" s="3">
-        <v>0</v>
-      </c>
-      <c r="E115" s="3">
-        <v>4</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K115" s="3">
-        <v>247</v>
-      </c>
-      <c r="N115" s="3" t="s">
-        <v>226</v>
+      <c r="A115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115">
+        <v>100</v>
+      </c>
+      <c r="D115" t="s">
+        <v>74</v>
+      </c>
+      <c r="F115" t="s">
+        <v>199</v>
+      </c>
+      <c r="G115" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B116" t="s">
-        <v>212</v>
-      </c>
-      <c r="C116">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>213</v>
+        <v>201</v>
+      </c>
+      <c r="G116" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B117" t="s">
-        <v>214</v>
-      </c>
-      <c r="C117">
-        <v>3</v>
-      </c>
-      <c r="D117" t="s">
-        <v>67</v>
+        <v>21</v>
+      </c>
+      <c r="E117" t="s">
+        <v>203</v>
       </c>
       <c r="F117" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118" t="s">
-        <v>98</v>
-      </c>
-      <c r="F118" t="s">
-        <v>186</v>
+        <v>202</v>
+      </c>
+      <c r="G117" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119" t="s">
-        <v>98</v>
-      </c>
-      <c r="F119" t="s">
-        <v>216</v>
+      <c r="A119" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3">
+        <v>4</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K119" s="3">
+        <v>247</v>
+      </c>
+      <c r="N119" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>208</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C121">
-        <v>0.25</v>
+        <v>3</v>
+      </c>
+      <c r="D121" t="s">
+        <v>65</v>
       </c>
       <c r="F121" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>96</v>
+      </c>
+      <c r="F122" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>96</v>
+      </c>
+      <c r="F123" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F124" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>213</v>
+      </c>
+      <c r="C125">
+        <v>0.25</v>
+      </c>
+      <c r="F125" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>214</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126" t="s">
+        <v>61</v>
+      </c>
+      <c r="E126" t="s">
+        <v>215</v>
+      </c>
+      <c r="F126" t="s">
+        <v>67</v>
+      </c>
+      <c r="G126" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K128" s="3">
+        <v>12</v>
+      </c>
+      <c r="N128" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0</v>
+      </c>
+      <c r="E129" s="3">
+        <v>0</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K129" s="3">
+        <v>21</v>
+      </c>
+      <c r="N129" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K130" s="3">
         <v>22</v>
       </c>
-      <c r="B122" t="s">
-        <v>218</v>
-      </c>
-      <c r="C122">
+      <c r="N130" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K131" s="3">
+        <v>34</v>
+      </c>
+      <c r="N131" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K132" s="3">
+        <v>36</v>
+      </c>
+      <c r="N132" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K133" s="3">
+        <v>39</v>
+      </c>
+      <c r="N133" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+      <c r="E134" s="3">
         <v>3</v>
       </c>
-      <c r="D122" t="s">
-        <v>63</v>
-      </c>
-      <c r="E122" t="s">
-        <v>219</v>
-      </c>
-      <c r="F122" t="s">
-        <v>69</v>
-      </c>
-      <c r="G122" t="s">
-        <v>220</v>
+      <c r="F134" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K134" s="3">
+        <v>41</v>
+      </c>
+      <c r="N134" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K135" s="3">
+        <v>42</v>
+      </c>
+      <c r="N135" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D137" s="3">
+        <v>4</v>
+      </c>
+      <c r="E137" s="3">
+        <v>3</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K137" s="3">
+        <v>44</v>
+      </c>
+      <c r="N137" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140">
+        <v>600</v>
+      </c>
+      <c r="D140" t="s">
+        <v>74</v>
+      </c>
+      <c r="F140" t="s">
+        <v>250</v>
+      </c>
+      <c r="G140" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F141" t="s">
+        <v>66</v>
+      </c>
+      <c r="G141" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142">
+        <v>300</v>
+      </c>
+      <c r="D142" t="s">
+        <v>74</v>
+      </c>
+      <c r="F142" t="s">
+        <v>252</v>
+      </c>
+      <c r="G142" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143">
+        <v>1.5</v>
+      </c>
+      <c r="D143" t="s">
+        <v>254</v>
+      </c>
+      <c r="F143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G143" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F144" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
